--- a/Test BLE/BLE.xlsx
+++ b/Test BLE/BLE.xlsx
@@ -1,16 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21001"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21425"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{019B16D8-7EBE-4C17-B2D9-8412213AD3DB}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Altium Project\Test BLE\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{214D56F2-F6F6-4136-9854-8A0A1D7D059E}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19170" windowHeight="10215" xr2:uid="{4B218EC2-AB84-47CA-8A05-4AC8B83A50F7}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{D9C01EC4-C356-4C14-8AD5-B046C00BB8D3}"/>
   </bookViews>
   <sheets>
     <sheet name="BLE" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="179021"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -26,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="31">
   <si>
     <t>Comment</t>
   </si>
@@ -46,76 +51,79 @@
     <t>Quantity</t>
   </si>
   <si>
-    <t>battery holder</t>
+    <t>Holyiot 18010</t>
+  </si>
+  <si>
+    <t>Holyiot 18010 B?c Âu nRF52840 module Bluetooth mô-dun nang lu?ng th?p h?i d?ng phát tri?n cho BLE lu?i bluetooth 5</t>
+  </si>
+  <si>
+    <t>BLE1</t>
+  </si>
+  <si>
+    <t>Cap</t>
   </si>
   <si>
     <t/>
   </si>
   <si>
+    <t>C1, C2, C3, C4, C5</t>
+  </si>
+  <si>
+    <t>CAP-0805</t>
+  </si>
+  <si>
+    <t>JP_8</t>
+  </si>
+  <si>
+    <t>J1</t>
+  </si>
+  <si>
+    <t>LED</t>
+  </si>
+  <si>
+    <t>L1, L2, L3</t>
+  </si>
+  <si>
+    <t>LED0805</t>
+  </si>
+  <si>
+    <t>Res</t>
+  </si>
+  <si>
+    <t>Resistor</t>
+  </si>
+  <si>
+    <t>R1, R2, R3</t>
+  </si>
+  <si>
+    <t>RES-SMD-0805</t>
+  </si>
+  <si>
+    <t>Res-SMD</t>
+  </si>
+  <si>
+    <t>10k</t>
+  </si>
+  <si>
+    <t>R4</t>
+  </si>
+  <si>
+    <t>RES0805</t>
+  </si>
+  <si>
+    <t>RES</t>
+  </si>
+  <si>
     <t>Button</t>
   </si>
   <si>
-    <t>B1</t>
-  </si>
-  <si>
-    <t>button</t>
-  </si>
-  <si>
-    <t>Holyiot 18010</t>
-  </si>
-  <si>
-    <t>Holyiot 18010 B?c Âu nRF52840 module Bluetooth mô-dun nang lu?ng th?p h?i d?ng phát tri?n cho BLE lu?i bluetooth 5</t>
-  </si>
-  <si>
-    <t>BLE1</t>
-  </si>
-  <si>
-    <t>Cap Semi</t>
-  </si>
-  <si>
-    <t>Capacitor (Semiconductor SIM Model)</t>
-  </si>
-  <si>
-    <t>C1</t>
-  </si>
-  <si>
-    <t>C1206</t>
-  </si>
-  <si>
-    <t>JP_4x1</t>
-  </si>
-  <si>
-    <t>JP1</t>
-  </si>
-  <si>
-    <t>JP_4x1_SMD</t>
-  </si>
-  <si>
-    <t>LED</t>
-  </si>
-  <si>
-    <t>LED1</t>
-  </si>
-  <si>
-    <t>LED-0805-Red</t>
-  </si>
-  <si>
-    <t>LED SMD</t>
-  </si>
-  <si>
-    <t>Res</t>
-  </si>
-  <si>
-    <t>Resistor</t>
-  </si>
-  <si>
-    <t>R1, R2</t>
-  </si>
-  <si>
-    <t>RES-SMD-1206</t>
-  </si>
-  <si>
-    <t>Res-SMD</t>
+    <t>S_R, S1, S2, S3</t>
+  </si>
+  <si>
+    <t>button_smd</t>
+  </si>
+  <si>
+    <t>trở 0805 10k</t>
   </si>
 </sst>
 </file>
@@ -178,13 +186,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -498,10 +507,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C137DFD1-4CA4-4394-AFE7-A8BE06DDA308}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3E3B2D0A-8C81-45F3-A013-2652DFE52C15}">
   <dimension ref="A1:F8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -536,7 +547,7 @@
         <v>7</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>6</v>
@@ -550,39 +561,39 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="C3" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E3" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D3" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>8</v>
-      </c>
       <c r="F3" s="3">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C4" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D4" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="D4" s="2" t="s">
-        <v>11</v>
-      </c>
       <c r="E4" s="2" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="F4" s="3">
         <v>1</v>
@@ -590,10 +601,10 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>16</v>
@@ -602,10 +613,10 @@
         <v>17</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F5" s="3">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
@@ -613,36 +624,36 @@
         <v>18</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>7</v>
+        <v>19</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="F6" s="3">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>7</v>
+        <v>23</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>30</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="F7" s="3">
         <v>1</v>
@@ -650,22 +661,22 @@
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>26</v>
+        <v>10</v>
       </c>
       <c r="C8" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E8" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="D8" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>29</v>
-      </c>
       <c r="F8" s="3">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
   </sheetData>
